--- a/Storage/B_visualization_20_nodes.xlsx
+++ b/Storage/B_visualization_20_nodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spaul/Documents/BlockchainTest/Storage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A528DC3-4392-E845-8EB7-28EDF0AAF86D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AC2C19-401B-F141-9B7E-F571676EE95D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,6 +650,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>UtilityToken</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Balance Progression</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -700,6 +730,111 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>balances!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>balances!$B$2:$B$34</c:f>
@@ -827,6 +962,111 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>balances!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>balances!$C$2:$C$34</c:f>
@@ -954,6 +1194,111 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>balances!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>balances!$D$2:$D$34</c:f>
@@ -1081,6 +1426,111 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>balances!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>balances!$E$2:$E$34</c:f>
@@ -1208,6 +1658,111 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>balances!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>balances!$F$2:$F$34</c:f>
@@ -1335,6 +1890,111 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>balances!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>balances!$G$2:$G$34</c:f>
@@ -1464,6 +2124,111 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>balances!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>balances!$H$2:$H$34</c:f>
@@ -1593,6 +2358,111 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>balances!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>balances!$I$2:$I$34</c:f>
@@ -1722,6 +2592,111 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>balances!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>balances!$J$2:$J$34</c:f>
@@ -1851,6 +2826,111 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>balances!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>balances!$K$2:$K$34</c:f>
@@ -1980,6 +3060,111 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>balances!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>balances!$L$2:$L$34</c:f>
@@ -2109,6 +3294,111 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>balances!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>balances!$M$2:$M$34</c:f>
@@ -2239,6 +3529,111 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>balances!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>balances!$N$2:$N$34</c:f>
@@ -2369,6 +3764,111 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>balances!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>balances!$O$2:$O$34</c:f>
@@ -2499,6 +3999,111 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>balances!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>balances!$P$2:$P$34</c:f>
@@ -2629,6 +4234,111 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>balances!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>balances!$Q$2:$Q$34</c:f>
@@ -2759,6 +4469,111 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>balances!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>balances!$R$2:$R$34</c:f>
@@ -2889,6 +4704,111 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>balances!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>balances!$S$2:$S$34</c:f>
@@ -3018,6 +4938,111 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>balances!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>balances!$T$2:$T$34</c:f>
@@ -3147,6 +5172,111 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>balances!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>balances!$U$2:$U$34</c:f>
@@ -3278,6 +5408,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Block Index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3343,6 +5529,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>UtilityToken</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4050,16 +6261,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
